--- a/docss/trend/estonia/E_huntington.xlsx
+++ b/docss/trend/estonia/E_huntington.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\estonia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\estonia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1559,7 +1559,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E19"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1583,13 @@
         <v>1999</v>
       </c>
       <c r="B2" s="7">
-        <v>5.6267492473125458E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
       </c>
       <c r="D2" s="7">
-        <v>9.2609740793704987E-2</v>
+        <v>9.2999999999999999E-2</v>
       </c>
       <c r="E2" s="7"/>
     </row>
@@ -1597,13 +1597,13 @@
       <c r="A3">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
-        <v>0.15742719173431396</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0.34364262223243713</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3">
+        <v>0.157</v>
+      </c>
+      <c r="C3">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
@@ -1612,13 +1612,13 @@
       <c r="A4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" s="7"/>
@@ -1627,14 +1627,14 @@
       <c r="A5">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
-        <v>7.1603924036026001E-2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.13597513735294342</v>
+      <c r="B5">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.13600000000000001</v>
       </c>
       <c r="E5" s="7"/>
     </row>
@@ -1642,14 +1642,14 @@
       <c r="A6">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
-        <v>7.5244545936584473E-2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.1392480731010437</v>
+      <c r="B6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.13900000000000001</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -1657,13 +1657,13 @@
       <c r="A7">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" s="7"/>
@@ -1672,14 +1672,14 @@
       <c r="A8">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
-        <v>5.3504548966884613E-2</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>8.7767414748668671E-2</v>
+      <c r="B8">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E8" s="7"/>
     </row>
@@ -1687,13 +1687,13 @@
       <c r="A9">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
-        <v>7.5353890657424927E-2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.16303715109825134</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" s="7"/>
@@ -1702,14 +1702,14 @@
       <c r="A10">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
-        <v>7.5536854565143585E-2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>0</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.1407318115234375</v>
+      <c r="B10">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.14099999999999999</v>
       </c>
       <c r="E10" s="7"/>
     </row>
@@ -1717,13 +1717,13 @@
       <c r="A11">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" s="7"/>
@@ -1732,13 +1732,13 @@
       <c r="A12">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="7"/>
@@ -1747,13 +1747,13 @@
       <c r="A13">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="7">
-        <v>0</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" s="7"/>
@@ -1762,13 +1762,13 @@
       <c r="A14">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="7"/>
@@ -1777,14 +1777,14 @@
       <c r="A15">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
-        <v>0.22230128943920135</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0.16467100381851196</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.25423875451087952</v>
+      <c r="B15">
+        <v>0.222</v>
+      </c>
+      <c r="C15">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.254</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -1792,14 +1792,14 @@
       <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
-        <v>7.5638063251972198E-2</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.14450867474079132</v>
+      <c r="B16">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.14499999999999999</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -1807,13 +1807,13 @@
       <c r="A17">
         <v>2014</v>
       </c>
-      <c r="B17" s="7">
-        <v>6.0955539345741272E-2</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.14134675264358521</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="B17">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" s="7"/>
@@ -1825,9 +1825,6 @@
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
       <c r="E19" s="7"/>
     </row>
   </sheetData>
